--- a/PREGAME/1.ELICITACIÓN/1.6 Backlog/Backlog_G3_V2.xlsx
+++ b/PREGAME/1.ELICITACIÓN/1.6 Backlog/Backlog_G3_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>SPRINT 0</t>
   </si>
@@ -86,13 +86,7 @@
     <t>REQ001-2</t>
   </si>
   <si>
-    <t>Implementar endpoints de registro y login (con encriptación y validación de datos)</t>
-  </si>
-  <si>
     <t>REQ001-3</t>
-  </si>
-  <si>
-    <t>Generar y manejar token de autenticación (JWT)</t>
   </si>
   <si>
     <t>REQ001-4</t>
@@ -342,30 +336,6 @@
   </si>
   <si>
     <t>Estimado (hrs)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Crear tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>usuarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> con campos necesarios (nombre, correo, contraseña, rol, estado)</t>
-    </r>
   </si>
   <si>
     <t>Carlos Rivera</t>
@@ -417,6 +387,39 @@
   </si>
   <si>
     <t>Generar reportes de inventario en PDF/Excel</t>
+  </si>
+  <si>
+    <t>Implementar endpoints de registro e inicio de sesión con validación y hash</t>
+  </si>
+  <si>
+    <t>Generar y manejar tokens de autenticación (JWT)</t>
+  </si>
+  <si>
+    <t>Crear tabla usuarios con campos: nombre, usuario, contraseña, rol, etc.</t>
+  </si>
+  <si>
+    <t>REQ001-5</t>
+  </si>
+  <si>
+    <t>Implementar middleware para validar tokens JWT en rutas protegidas</t>
+  </si>
+  <si>
+    <t>REQ001-6</t>
+  </si>
+  <si>
+    <t>Crear interfaces y formularios front-end para registro e inicio de sesión</t>
+  </si>
+  <si>
+    <t>REQ001-7</t>
+  </si>
+  <si>
+    <t>Manejo de errores y mensajes de validación</t>
+  </si>
+  <si>
+    <t>REQ001-8</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias e integración para endpoints de usuario</t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,28 +792,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -825,6 +812,25 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,11 +1001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="300663832"/>
-        <c:axId val="300406656"/>
+        <c:axId val="232446752"/>
+        <c:axId val="232444008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="300663832"/>
+        <c:axId val="232446752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1045,7 +1050,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300406656"/>
+        <c:crossAx val="232444008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1053,7 +1058,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300406656"/>
+        <c:axId val="232444008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1091,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1111,7 +1115,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300663832"/>
+        <c:crossAx val="232446752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,7 +1135,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1413,7 +1416,7 @@
   </sheetPr>
   <dimension ref="A1:H998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1431,324 +1434,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="13.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="G2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.2">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.2">
+      <c r="A4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.2">
+      <c r="A6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.2">
+      <c r="A7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.2">
-      <c r="A3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="13.2">
+      <c r="A8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="D8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.2">
-      <c r="A4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+    <row r="9" spans="1:8" ht="13.2">
+      <c r="A9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13.2">
-      <c r="A6" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.2">
-      <c r="A7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.2">
-      <c r="A8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="13.2">
-      <c r="A9" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.2"/>
     <row r="11" spans="1:8" ht="13.2">
-      <c r="A11" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="A11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="G12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="D13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="E13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="B14" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29" t="s">
+      <c r="C14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="A16" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="G17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="D18" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="E18" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4711,8 +4714,8 @@
   </sheetPr>
   <dimension ref="B1:I1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4728,262 +4731,314 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:9" ht="13.2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="26.4">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:9" ht="13.2">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="5" spans="2:9" ht="13.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="13.2">
+      <c r="B6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="13.2">
+      <c r="B7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="41.4">
-      <c r="B6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="E7" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="13.2">
+      <c r="B8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="13.2">
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="29">
+      <c r="D9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="39.6">
-      <c r="B7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="29">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="26.4">
-      <c r="B8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="29" t="s">
+    <row r="12" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B12" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B13" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="13.2"/>
+    <row r="15" spans="2:9" ht="19.2" customHeight="1"/>
+    <row r="16" spans="2:9" ht="16.8" customHeight="1">
+      <c r="B16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="22.8" customHeight="1">
+      <c r="B17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="25.2" customHeight="1"/>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="C20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="26.4">
-      <c r="B9" s="29" t="s">
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="C21" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="31" t="s">
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="21">
         <v>1</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B12" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="14" spans="2:9" ht="13.2">
-      <c r="B14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="27.6" customHeight="1">
-      <c r="B15" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="22.8" customHeight="1">
-      <c r="B16" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="22.8" customHeight="1">
-      <c r="B17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="25.2" customHeight="1">
-      <c r="B18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="24" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:5" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5954,7 +6009,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5990,28 +6045,28 @@
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -6076,7 +6131,7 @@
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -6105,7 +6160,7 @@
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -6122,7 +6177,7 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -6139,7 +6194,7 @@
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -6156,7 +6211,7 @@
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -6173,7 +6228,7 @@
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -6190,7 +6245,7 @@
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
@@ -6207,7 +6262,7 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -6224,7 +6279,7 @@
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -6241,7 +6296,7 @@
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
@@ -6258,7 +6313,7 @@
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -6275,7 +6330,7 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -6292,7 +6347,7 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -6309,7 +6364,7 @@
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -6326,7 +6381,7 @@
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="2"/>
@@ -6343,7 +6398,7 @@
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="2"/>
@@ -6360,7 +6415,7 @@
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="2"/>
@@ -6377,7 +6432,7 @@
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="2"/>
@@ -6394,7 +6449,7 @@
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="2"/>
@@ -6411,7 +6466,7 @@
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="2"/>
@@ -6428,7 +6483,7 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="2"/>
@@ -6445,7 +6500,7 @@
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="2"/>
@@ -6462,7 +6517,7 @@
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="2"/>
@@ -6479,7 +6534,7 @@
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="2"/>
@@ -6496,7 +6551,7 @@
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="2"/>
@@ -6513,7 +6568,7 @@
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1">
         <f>SUM(C4:C16)</f>
@@ -6545,7 +6600,7 @@
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="17">
         <f>SUM(C4:C16)</f>
@@ -6604,70 +6659,70 @@
     <row r="51" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="B53" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="B58" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
